--- a/Keyword Creation/N14 - CANCELLED HEARING.xlsx
+++ b/Keyword Creation/N14 - CANCELLED HEARING.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">SE DEJA SIN EFECTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEJESE SIN EFECTO</t>
   </si>
 </sst>
 </file>
@@ -144,13 +147,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -170,17 +177,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,6 +373,94 @@
         <v>13</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
